--- a/diagrama/vetorProducoes.xlsx
+++ b/diagrama/vetorProducoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\gitCC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142BE8E2-7EC1-4C4E-A5E6-E7D3060A31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A754F8-9F60-433A-9168-9A1DA03A0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="14190" yWindow="4185" windowWidth="12000" windowHeight="10095" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -126,16 +126,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -169,10 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B036541-4438-40AE-8FBB-B18DCF2358C6}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +490,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -518,7 +509,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -526,7 +517,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -550,7 +541,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -558,7 +549,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -566,7 +557,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -574,7 +565,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -582,7 +573,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -590,7 +581,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -598,7 +589,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -606,7 +597,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -614,7 +605,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -622,7 +613,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -630,7 +621,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -638,7 +629,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -646,7 +637,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -654,7 +645,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -662,7 +653,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -670,7 +661,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -678,7 +669,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -686,7 +677,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -694,7 +685,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -710,7 +701,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -718,7 +709,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -726,7 +717,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -734,7 +725,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -742,7 +733,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -750,7 +741,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -758,7 +749,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -766,7 +757,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -774,7 +765,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/diagrama/vetorProducoes.xlsx
+++ b/diagrama/vetorProducoes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\gitCC\lexico\diagrama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A754F8-9F60-433A-9168-9A1DA03A0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D86CA9-BFFD-450E-A563-832F762DC769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="4185" windowWidth="12000" windowHeight="10095" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11505" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>fim sequencia_de_comandos declaracao_das_variaveis inicio</t>
   </si>
   <si>
-    <t>declaração_das_variaveis ; lista_ids : tipo</t>
-  </si>
-  <si>
     <t>lista_ids_aux identificador</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>letra</t>
+  </si>
+  <si>
+    <t>declaracao_das_variaveis ; lista_ids : tipo</t>
   </si>
 </sst>
 </file>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B036541-4438-40AE-8FBB-B18DCF2358C6}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -558,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -566,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -574,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -590,7 +590,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -638,7 +638,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -718,7 +718,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/diagrama/vetorProducoes.xlsx
+++ b/diagrama/vetorProducoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougl\Desktop\UFU\CC\lexico\diagrama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D86CA9-BFFD-450E-A563-832F762DC769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5539E7-893E-41E8-AB3D-EE7E79842971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11505" xr2:uid="{928B72E6-FCF6-4A9F-898E-108A1E30D224}"/>
   </bookViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B036541-4438-40AE-8FBB-B18DCF2358C6}">
   <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
